--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc13.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc13.xlsx
@@ -247,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="X1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,23 +894,23 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40">
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -925,8 +925,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -938,11 +938,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="6">COUNTIFS(AJ:AJ, AL12)</f>
-        <v>1</v>
-      </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="7">AM12/(SUM(AM$11:AM$37))</f>
+        <f t="shared" ref="AM12:AM38" si="6">COUNTIFS(AJ:AJ, AL12)</f>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="7">AM12/(SUM(AM$11:AM$38))</f>
         <v>1</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1021,7 +1021,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1037,7 +1037,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1085,7 +1085,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1117,7 +1117,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1181,7 +1181,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1213,7 +1213,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1229,7 +1229,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1245,7 +1245,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1261,72 +1261,85 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="38:40">
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="8">
+      <c r="AM33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="38:40">
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="8">
+      <c r="AM34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="38:40">
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="8">
+      <c r="AM35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="38:40">
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="8">
+      <c r="AM36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="38:40">
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="8">
+      <c r="AM37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="38:40">
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
